--- a/SI_6_AOP_relevance With Short AOP name.xlsx
+++ b/SI_6_AOP_relevance With Short AOP name.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRCData\Git\toxManuscript\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\RCode\toxEval_Archive\Scripts for Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="SI_AOP_relevance" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="75">
   <si>
     <t>AOP</t>
   </si>
@@ -213,9 +216,6 @@
     <t>Impared fertility in males</t>
   </si>
   <si>
-    <t>Averse effects in the male foetus</t>
-  </si>
-  <si>
     <t>Reproductive failure</t>
   </si>
   <si>
@@ -241,13 +241,19 @@
   </si>
   <si>
     <t>coagulopathy and hemorrhage</t>
+  </si>
+  <si>
+    <t>Adverse effects in the male foetus</t>
+  </si>
+  <si>
+    <t>Not environmentally relevant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +387,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -724,7 +736,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,6 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -778,8 +791,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1056,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1146,7 +1187,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1163,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1180,7 +1221,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1197,7 +1238,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1214,7 +1255,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1231,7 +1272,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1248,7 +1289,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1265,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1282,7 +1323,7 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1299,7 +1340,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1316,7 +1357,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1333,7 +1374,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1350,7 +1391,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1367,7 +1408,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1384,7 +1425,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1401,7 +1442,7 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1418,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1435,7 +1476,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1452,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1469,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1486,7 +1527,7 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1503,7 +1544,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1520,7 +1561,7 @@
         <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1537,7 +1578,7 @@
         <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1554,7 +1595,7 @@
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1571,10 +1612,10 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1582,13 +1623,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1596,13 +1640,16 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1610,13 +1657,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1624,13 +1674,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1638,13 +1691,16 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1652,13 +1708,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1666,14 +1725,16 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1681,13 +1742,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1695,13 +1759,16 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
@@ -1709,13 +1776,16 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26</v>
       </c>
@@ -1723,13 +1793,16 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>26</v>
       </c>
@@ -1737,13 +1810,16 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>26</v>
       </c>
@@ -1751,13 +1827,16 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>30</v>
       </c>
@@ -1765,13 +1844,16 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>30</v>
       </c>
@@ -1779,13 +1861,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>34</v>
       </c>
@@ -1793,13 +1878,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>34</v>
       </c>
@@ -1807,13 +1895,16 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>34</v>
       </c>
@@ -1821,13 +1912,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>34</v>
       </c>
@@ -1835,13 +1929,16 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>35</v>
       </c>
@@ -1849,13 +1946,16 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>38</v>
       </c>
@@ -1863,13 +1963,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>38</v>
       </c>
@@ -1877,13 +1980,16 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -1891,13 +1997,16 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
@@ -1905,13 +2014,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>48</v>
       </c>
@@ -1919,26 +2031,31 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>57</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>58</v>
       </c>
@@ -1946,13 +2063,16 @@
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60</v>
       </c>
@@ -1960,13 +2080,16 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E58" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60</v>
       </c>
@@ -1974,13 +2097,16 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E59" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>61</v>
       </c>
@@ -1988,13 +2114,16 @@
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E60" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2002,13 +2131,16 @@
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E61" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2016,13 +2148,16 @@
         <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E62" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>111</v>
       </c>
@@ -2030,13 +2165,16 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>112</v>
       </c>
@@ -2044,13 +2182,16 @@
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E64" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>112</v>
       </c>
@@ -2058,13 +2199,16 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>130</v>
       </c>
@@ -2072,13 +2216,16 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E66" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>130</v>
       </c>
@@ -2086,13 +2233,16 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E67" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>130</v>
       </c>
@@ -2100,13 +2250,16 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>144</v>
       </c>
@@ -2114,13 +2267,16 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>144</v>
       </c>
@@ -2128,13 +2284,16 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E70" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>144</v>
       </c>
@@ -2142,13 +2301,16 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E71" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>165</v>
       </c>
@@ -2156,13 +2318,16 @@
         <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>165</v>
       </c>
@@ -2170,13 +2335,16 @@
         <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>167</v>
       </c>
@@ -2184,13 +2352,16 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E74" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>167</v>
       </c>
@@ -2198,13 +2369,16 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>200</v>
       </c>
@@ -2212,13 +2386,16 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>200</v>
       </c>
@@ -2226,13 +2403,16 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>200</v>
       </c>
@@ -2240,13 +2420,16 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>209</v>
       </c>
@@ -2254,26 +2437,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E79" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>214</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>217</v>
       </c>
@@ -2281,10 +2469,13 @@
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2301,7 +2492,7 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2318,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2335,7 +2526,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2352,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2369,7 +2560,7 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2386,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2403,7 +2594,7 @@
         <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2420,7 +2611,7 @@
         <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2437,7 +2628,7 @@
         <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2454,7 +2645,7 @@
         <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2471,7 +2662,7 @@
         <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2488,7 +2679,7 @@
         <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2505,7 +2696,7 @@
         <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2522,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2539,7 +2730,7 @@
         <v>55</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2556,7 +2747,7 @@
         <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2573,7 +2764,7 @@
         <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2590,7 +2781,7 @@
         <v>56</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2598,5 +2789,6 @@
     <sortCondition ref="C2:C99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SI_6_AOP_relevance With Short AOP name.xlsx
+++ b/SI_6_AOP_relevance With Short AOP name.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\RCode\toxEval_Archive\Scripts for Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\toxManuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D719CAC1-F6EB-42C4-B497-64B9D0CDAA38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI_AOP_relevance" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="74">
   <si>
     <t>AOP</t>
   </si>
@@ -127,9 +128,6 @@
   </si>
   <si>
     <t>The ToxCast endpoints are relevant to estrogen receptor agonism. The AOP itself is not well developed, but it is likely relevant to vertebrate wildlife and the outcome of altered sexual differentiation is of accepted ecological significance at the population level.</t>
-  </si>
-  <si>
-    <t>The ToxCast endpoints are relevant to estrogen receptor agonism. The AOP links the endpoint response to an effect on survival, and thus an outcome of ecological relevance. However, this AOP is only expected to be relevant at very high and persistent levels of xenoestrogen exposure.</t>
   </si>
   <si>
     <t>The ToxCast endpoints are relevant to estrogen receptor agonism. The AOP links the endpoint response to an effect on survival, and thus and outcome of ecological relevance. However, this AOP is only expected to be relevant at very high and persistent levels of xenoestrogen exposure.</t>
@@ -252,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,7 +814,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1094,21 +1092,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1136,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18</v>
       </c>
@@ -1153,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19</v>
       </c>
@@ -1170,10 +1168,10 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>77</v>
       </c>
@@ -1184,13 +1182,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>77</v>
       </c>
@@ -1201,13 +1199,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>77</v>
       </c>
@@ -1218,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>78</v>
       </c>
@@ -1235,13 +1233,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>78</v>
       </c>
@@ -1252,13 +1250,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>78</v>
       </c>
@@ -1269,13 +1267,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>79</v>
       </c>
@@ -1286,13 +1284,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>79</v>
       </c>
@@ -1303,13 +1301,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>79</v>
       </c>
@@ -1320,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>80</v>
       </c>
@@ -1337,13 +1335,13 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>80</v>
       </c>
@@ -1354,13 +1352,13 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>80</v>
       </c>
@@ -1371,13 +1369,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>87</v>
       </c>
@@ -1388,13 +1386,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>87</v>
       </c>
@@ -1405,13 +1403,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>87</v>
       </c>
@@ -1422,13 +1420,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>178</v>
       </c>
@@ -1439,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>178</v>
       </c>
@@ -1456,13 +1454,13 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>178</v>
       </c>
@@ -1473,13 +1471,13 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>187</v>
       </c>
@@ -1490,13 +1488,13 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>187</v>
       </c>
@@ -1507,13 +1505,13 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>187</v>
       </c>
@@ -1524,13 +1522,13 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>212</v>
       </c>
@@ -1541,13 +1539,13 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>216</v>
       </c>
@@ -1558,13 +1556,13 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>238</v>
       </c>
@@ -1575,13 +1573,13 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>238</v>
       </c>
@@ -1592,13 +1590,13 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>238</v>
       </c>
@@ -1609,13 +1607,13 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1623,16 +1621,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1640,16 +1638,16 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1657,16 +1655,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1674,16 +1672,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1691,16 +1689,16 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1708,16 +1706,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1725,16 +1723,16 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1742,16 +1740,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1759,16 +1757,16 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>17</v>
       </c>
@@ -1776,16 +1774,16 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>26</v>
       </c>
@@ -1793,16 +1791,16 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>26</v>
       </c>
@@ -1810,16 +1808,16 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>26</v>
       </c>
@@ -1827,16 +1825,16 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>30</v>
       </c>
@@ -1844,16 +1842,16 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>30</v>
       </c>
@@ -1861,16 +1859,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34</v>
       </c>
@@ -1878,16 +1876,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>34</v>
       </c>
@@ -1895,16 +1893,16 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34</v>
       </c>
@@ -1912,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34</v>
       </c>
@@ -1929,16 +1927,16 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>35</v>
       </c>
@@ -1946,16 +1944,16 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>38</v>
       </c>
@@ -1963,16 +1961,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>38</v>
       </c>
@@ -1980,16 +1978,16 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -1997,16 +1995,16 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>48</v>
       </c>
@@ -2014,16 +2012,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>48</v>
       </c>
@@ -2031,133 +2029,133 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>57</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>58</v>
       </c>
       <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>60</v>
       </c>
       <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>111</v>
       </c>
@@ -2165,16 +2163,16 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>112</v>
       </c>
@@ -2182,16 +2180,16 @@
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>112</v>
       </c>
@@ -2199,16 +2197,16 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>130</v>
       </c>
@@ -2216,16 +2214,16 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>130</v>
       </c>
@@ -2233,16 +2231,16 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>130</v>
       </c>
@@ -2250,16 +2248,16 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>144</v>
       </c>
@@ -2267,16 +2265,16 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>144</v>
       </c>
@@ -2284,16 +2282,16 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>144</v>
       </c>
@@ -2301,50 +2299,50 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>167</v>
       </c>
@@ -2352,16 +2350,16 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>167</v>
       </c>
@@ -2369,16 +2367,16 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>200</v>
       </c>
@@ -2386,16 +2384,16 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>200</v>
       </c>
@@ -2403,16 +2401,16 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>200</v>
       </c>
@@ -2420,16 +2418,16 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>209</v>
       </c>
@@ -2437,31 +2435,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>214</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>217</v>
       </c>
@@ -2469,16 +2467,16 @@
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>28</v>
       </c>
@@ -2492,10 +2490,10 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>29</v>
       </c>
@@ -2509,10 +2507,10 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>29</v>
       </c>
@@ -2526,10 +2524,10 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>52</v>
       </c>
@@ -2543,10 +2541,10 @@
         <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>52</v>
       </c>
@@ -2560,15 +2558,15 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -2577,29 +2575,29 @@
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -2608,15 +2606,15 @@
         <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -2625,15 +2623,15 @@
         <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -2642,15 +2640,15 @@
         <v>23</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -2659,69 +2657,69 @@
         <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -2730,63 +2728,46 @@
         <v>55</v>
       </c>
       <c r="E96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>207</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>207</v>
-      </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E99">
-    <sortCondition ref="C2:C99"/>
+  <sortState ref="A2:E98">
+    <sortCondition ref="C2:C98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SI_6_AOP_relevance With Short AOP name.xlsx
+++ b/SI_6_AOP_relevance With Short AOP name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\toxManuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D719CAC1-F6EB-42C4-B497-64B9D0CDAA38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAFD10BC-1366-4BCE-9032-0714BF172D26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SI_AOP_relevance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SI_AOP_relevance!$A$1:$E$98</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -175,12 +176,6 @@
     <t>The adverse outcome of this AOP, liver inflammation, would generally not be considered relevant to ecological risk without additional linkage to impacts on survival, growth, or reproduction.</t>
   </si>
   <si>
-    <t>NVS_NR_mERa</t>
-  </si>
-  <si>
-    <t>NVS_NR_hER</t>
-  </si>
-  <si>
     <t>The ToxCast endpoints relate to the ability of mitochondria to produce ATP.  However, the KER linking this MIE to downstream events in the AOP which would be ecologically relevant is missing.</t>
   </si>
   <si>
@@ -245,6 +240,12 @@
   </si>
   <si>
     <t>Not environmentally relevant</t>
+  </si>
+  <si>
+    <t>TOX21_ERa_BLA_Antagonist_ratio</t>
+  </si>
+  <si>
+    <t>TOX21_ERa_LUC_BG1_Antagonist</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1168,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1185,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1202,7 +1203,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1219,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1236,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1253,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1270,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1287,7 +1288,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1304,7 +1305,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1321,7 +1322,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1338,7 +1339,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1355,7 +1356,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1372,7 +1373,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1389,7 +1390,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1406,7 +1407,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1423,7 +1424,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1440,7 +1441,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1457,7 +1458,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1474,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1488,10 +1489,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1505,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1522,10 +1523,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1539,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1556,10 +1557,10 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1573,10 +1574,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1590,10 +1591,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1607,10 +1608,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -1621,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -1638,13 +1639,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -1655,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -1672,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -1689,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -1706,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.4">
@@ -1723,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1740,13 +1741,13 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1757,13 +1758,13 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1774,13 +1775,13 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1791,13 +1792,13 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1808,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1825,13 +1826,13 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1839,16 +1840,16 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1856,16 +1857,16 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1876,13 +1877,13 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1893,13 +1894,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1910,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1927,13 +1928,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
@@ -1944,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1961,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -1978,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -1995,13 +1996,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -2012,13 +2013,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -2029,13 +2030,13 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2044,13 +2045,13 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2061,13 +2062,13 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2078,13 +2079,13 @@
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2095,13 +2096,13 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2112,13 +2113,13 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2129,13 +2130,13 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2146,13 +2147,13 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2163,13 +2164,13 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2180,13 +2181,13 @@
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2197,13 +2198,13 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2214,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2231,13 +2232,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2248,13 +2249,13 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2265,13 +2266,13 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2282,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2299,13 +2300,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2313,16 +2314,16 @@
         <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2330,16 +2331,16 @@
         <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2350,13 +2351,13 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2367,13 +2368,13 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
@@ -2384,13 +2385,13 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
@@ -2401,13 +2402,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
@@ -2418,13 +2419,13 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2435,13 +2436,13 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
@@ -2450,13 +2451,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -2467,13 +2468,13 @@
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2490,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2507,7 +2508,7 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2524,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2541,7 +2542,7 @@
         <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2558,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2575,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,7 +2593,7 @@
         <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2609,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2626,7 +2627,7 @@
         <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,7 +2661,7 @@
         <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2674,10 +2675,10 @@
         <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2691,10 +2692,10 @@
         <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2708,10 +2709,10 @@
         <v>23</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2725,10 +2726,10 @@
         <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2742,10 +2743,10 @@
         <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2759,13 +2760,14 @@
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E98" xr:uid="{54594C5C-F9BB-451E-9621-7FF27758BA2F}"/>
   <sortState ref="A2:E98">
     <sortCondition ref="C2:C98"/>
   </sortState>

--- a/SI_6_AOP_relevance With Short AOP name.xlsx
+++ b/SI_6_AOP_relevance With Short AOP name.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\toxManuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAFD10BC-1366-4BCE-9032-0714BF172D26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E77FD8-91B8-42B9-8206-44B18E378479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SI_AOP_relevance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SI_AOP_relevance!$A$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SI_AOP_relevance!$A$1:$E$100</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="76">
   <si>
     <t>AOP</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>TOX21_ERa_LUC_BG1_Antagonist</t>
+  </si>
+  <si>
+    <t>APR_HepG2_CellCycleArrest_24h_dn</t>
+  </si>
+  <si>
+    <t>APR_HepG2_OxidativeStress_1h_dn</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +578,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -735,7 +747,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,6 +757,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1094,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,21 +1185,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1194,7 +1204,7 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1211,7 +1221,7 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1225,10 +1235,10 @@
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1245,7 +1255,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1262,7 +1272,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1276,10 +1286,10 @@
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1296,7 +1306,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1313,7 +1323,7 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1327,10 +1337,10 @@
     </row>
     <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1347,7 +1357,7 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1364,7 +1374,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -1378,10 +1388,10 @@
     </row>
     <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1398,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1415,7 +1425,7 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1429,10 +1439,10 @@
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1444,21 +1454,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1466,7 +1473,7 @@
         <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1478,38 +1485,38 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1517,7 +1524,7 @@
         <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1529,72 +1536,72 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1602,7 +1609,7 @@
         <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1614,38 +1621,38 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
@@ -1653,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -1665,35 +1672,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>71</v>
@@ -1701,7 +1708,7 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1710,15 +1717,15 @@
         <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1727,41 +1734,41 @@
         <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>11</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>12</v>
-      </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>71</v>
@@ -1769,7 +1776,7 @@
     </row>
     <row r="40" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1784,35 +1791,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>71</v>
@@ -1823,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -1837,16 +1844,16 @@
     </row>
     <row r="44" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>71</v>
@@ -1854,50 +1861,50 @@
     </row>
     <row r="45" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>30</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>34</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>71</v>
@@ -1908,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -1925,7 +1932,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -1937,18 +1944,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>71</v>
@@ -1956,67 +1963,67 @@
     </row>
     <row r="51" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>38</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A52">
+      <c r="E53" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>71</v>
@@ -2027,7 +2034,7 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2039,67 +2046,67 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+    <row r="56" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="73.2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A57">
+      <c r="E58" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>71</v>
@@ -2107,10 +2114,10 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -2124,10 +2131,10 @@
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2144,7 +2151,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -2156,18 +2163,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>71</v>
@@ -2175,33 +2182,33 @@
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>71</v>
@@ -2209,16 +2216,16 @@
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>71</v>
@@ -2226,16 +2233,16 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>71</v>
@@ -2246,7 +2253,7 @@
         <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -2260,16 +2267,16 @@
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>71</v>
@@ -2277,16 +2284,16 @@
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>71</v>
@@ -2297,7 +2304,7 @@
         <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -2309,77 +2316,77 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A72">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A74">
         <v>165</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A73">
+      <c r="E74" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A75">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A74">
+      <c r="E75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A76">
         <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>167</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>200</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -2388,24 +2395,24 @@
         <v>68</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>71</v>
@@ -2416,7 +2423,7 @@
         <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -2428,109 +2435,109 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A79">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>200</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A81">
         <v>209</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="C79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
+      <c r="E81" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
         <v>214</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A81">
+      <c r="E82" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A83">
         <v>217</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>22</v>
       </c>
-      <c r="C81" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>28</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>29</v>
-      </c>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" t="s">
-        <v>62</v>
+      <c r="E83" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
@@ -2539,15 +2546,15 @@
         <v>23</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
@@ -2556,66 +2563,66 @@
         <v>23</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -2627,12 +2634,12 @@
         <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -2649,7 +2656,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -2664,46 +2671,46 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -2715,38 +2722,38 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2754,7 +2761,7 @@
         <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -2766,10 +2773,44 @@
         <v>61</v>
       </c>
     </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E98" xr:uid="{54594C5C-F9BB-451E-9621-7FF27758BA2F}"/>
-  <sortState ref="A2:E98">
-    <sortCondition ref="C2:C98"/>
+  <autoFilter ref="A1:E100" xr:uid="{54594C5C-F9BB-451E-9621-7FF27758BA2F}"/>
+  <sortState ref="A2:E100">
+    <sortCondition ref="C2:C100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
